--- a/log_history/Y2_B2526_Physiology_scanner1764503245835_459e34d077a3cf0487d179771e7dc8695abcea113a7c399b7d6574f5d22b28d5.xlsx
+++ b/log_history/Y2_B2526_Physiology_scanner1764503245835_459e34d077a3cf0487d179771e7dc8695abcea113a7c399b7d6574f5d22b28d5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Physiology_scanner1764503245835_459e34d077a3cf0487d179771e7dc8695abcea113a7c399b7d6574f5d22b28d5.xlsx
+++ b/log_history/Y2_B2526_Physiology_scanner1764503245835_459e34d077a3cf0487d179771e7dc8695abcea113a7c399b7d6574f5d22b28d5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Physiology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
